--- a/WattsBetter/assets/data/eletricidade.xlsx
+++ b/WattsBetter/assets/data/eletricidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catarina_palmeirao/Dropbox/Tecstorm/WattsBetter/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5996BCA-ED67-6448-99DC-8B409C7EFB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFB0107-B660-D34F-A7F2-D3B77ACFC9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15980" xr2:uid="{962AFEC7-E7F5-234E-9F2E-1C1D4356B51D}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,8 +517,12 @@
       <c r="C3" s="1">
         <v>0.15570000000000001</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1">
+        <v>0.129</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.18809999999999999</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -534,8 +538,12 @@
       <c r="C4" s="1">
         <v>0.15570000000000001</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1">
+        <v>0.20019999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.18809999999999999</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -551,8 +559,12 @@
       <c r="C5" s="1">
         <v>0.15570000000000001</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.18809999999999999</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -568,8 +580,12 @@
       <c r="C6" s="1">
         <v>0.15570000000000001</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.18809999999999999</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -585,8 +601,12 @@
       <c r="C7" s="1">
         <v>0.15570000000000001</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1">
+        <v>0.44519999999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.18809999999999999</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -602,8 +622,12 @@
       <c r="C8" s="1">
         <v>0.15570000000000001</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1">
+        <v>0.53149999999999997</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.18809999999999999</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -619,8 +643,12 @@
       <c r="C9" s="1">
         <v>0.15570000000000001</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1">
+        <v>0.7369</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.18809999999999999</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -636,8 +664,12 @@
       <c r="C10" s="1">
         <v>0.15570000000000001</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.18809999999999999</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -653,8 +685,12 @@
       <c r="C11" s="1">
         <v>0.15570000000000001</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1">
+        <v>1.2692000000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.18809999999999999</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -670,8 +706,12 @@
       <c r="C12" s="1">
         <v>0.15570000000000001</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="1">
+        <v>1.5519000000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.18809999999999999</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>

--- a/WattsBetter/assets/data/eletricidade.xlsx
+++ b/WattsBetter/assets/data/eletricidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catarina_palmeirao/Dropbox/Tecstorm/WattsBetter/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFB0107-B660-D34F-A7F2-D3B77ACFC9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99602155-F2D9-0240-BDEA-BB53D257E636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15980" xr2:uid="{962AFEC7-E7F5-234E-9F2E-1C1D4356B51D}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,8 +523,12 @@
       <c r="E3" s="1">
         <v>0.18809999999999999</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="1">
+        <v>0.1547</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.16139999999999999</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
@@ -544,8 +548,12 @@
       <c r="E4" s="1">
         <v>0.18809999999999999</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="1">
+        <v>0.20469999999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.16139999999999999</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -565,8 +573,12 @@
       <c r="E5" s="1">
         <v>0.18809999999999999</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="1">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.16139999999999999</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -586,8 +598,12 @@
       <c r="E6" s="1">
         <v>0.18809999999999999</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="1">
+        <v>0.28339999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.16139999999999999</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -607,8 +623,12 @@
       <c r="E7" s="1">
         <v>0.18809999999999999</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="1">
+        <v>0.34920000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.16139999999999999</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
@@ -628,8 +648,12 @@
       <c r="E8" s="1">
         <v>0.18809999999999999</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="1">
+        <v>0.41980000000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.16139999999999999</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -649,8 +673,12 @@
       <c r="E9" s="1">
         <v>0.18809999999999999</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="1">
+        <v>0.628</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.16139999999999999</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
@@ -670,8 +698,12 @@
       <c r="E10" s="1">
         <v>0.18809999999999999</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.16139999999999999</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -691,8 +723,12 @@
       <c r="E11" s="1">
         <v>0.18809999999999999</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1">
+        <v>1.0324</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.16139999999999999</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
@@ -712,8 +748,12 @@
       <c r="E12" s="1">
         <v>0.18809999999999999</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1">
+        <v>1.2351000000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.16139999999999999</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>

--- a/WattsBetter/assets/data/eletricidade.xlsx
+++ b/WattsBetter/assets/data/eletricidade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catarina_palmeirao/Dropbox/Tecstorm/WattsBetter/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99602155-F2D9-0240-BDEA-BB53D257E636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67375A16-F1B5-6C4A-9D61-614D7500EA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15980" xr2:uid="{962AFEC7-E7F5-234E-9F2E-1C1D4356B51D}"/>
   </bookViews>
@@ -77,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -100,17 +100,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +460,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,8 +541,12 @@
       <c r="G3" s="1">
         <v>0.16139999999999999</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.1699</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -554,8 +570,12 @@
       <c r="G4" s="1">
         <v>0.16139999999999999</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.1699</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -579,8 +599,12 @@
       <c r="G5" s="1">
         <v>0.16139999999999999</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.1699</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -604,8 +628,12 @@
       <c r="G6" s="1">
         <v>0.16139999999999999</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.1699</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -629,8 +657,12 @@
       <c r="G7" s="1">
         <v>0.16139999999999999</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.1699</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -654,8 +686,12 @@
       <c r="G8" s="1">
         <v>0.16139999999999999</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.1699</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -679,8 +715,12 @@
       <c r="G9" s="1">
         <v>0.16139999999999999</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.1699</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -704,8 +744,12 @@
       <c r="G10" s="1">
         <v>0.16139999999999999</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.1699</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -729,8 +773,12 @@
       <c r="G11" s="1">
         <v>0.16139999999999999</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.1699</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -754,8 +802,12 @@
       <c r="G12" s="1">
         <v>0.16139999999999999</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.1699</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
